--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ptgs2</t>
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.982015943671509</v>
+        <v>523.0380759999999</v>
       </c>
       <c r="H2">
-        <v>9.982015943671509</v>
+        <v>1569.114228</v>
       </c>
       <c r="I2">
-        <v>0.4036303453202484</v>
+        <v>0.9706650893210215</v>
       </c>
       <c r="J2">
-        <v>0.4036303453202484</v>
+        <v>0.9706650893210214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N2">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q2">
-        <v>1092.89894977646</v>
+        <v>214245.1046879114</v>
       </c>
       <c r="R2">
-        <v>1092.89894977646</v>
+        <v>1928205.942191203</v>
       </c>
       <c r="S2">
-        <v>0.1263044553185964</v>
+        <v>0.6051248015641634</v>
       </c>
       <c r="T2">
-        <v>0.1263044553185964</v>
+        <v>0.6051248015641633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.982015943671509</v>
+        <v>523.0380759999999</v>
       </c>
       <c r="H3">
-        <v>9.982015943671509</v>
+        <v>1569.114228</v>
       </c>
       <c r="I3">
-        <v>0.4036303453202484</v>
+        <v>0.9706650893210215</v>
       </c>
       <c r="J3">
-        <v>0.4036303453202484</v>
+        <v>0.9706650893210214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N3">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q3">
-        <v>561.2372360372301</v>
+        <v>29549.23695024118</v>
       </c>
       <c r="R3">
-        <v>561.2372360372301</v>
+        <v>265943.1325521707</v>
       </c>
       <c r="S3">
-        <v>0.06486122382741417</v>
+        <v>0.08346037204413219</v>
       </c>
       <c r="T3">
-        <v>0.06486122382741417</v>
+        <v>0.08346037204413218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.982015943671509</v>
+        <v>523.0380759999999</v>
       </c>
       <c r="H4">
-        <v>9.982015943671509</v>
+        <v>1569.114228</v>
       </c>
       <c r="I4">
-        <v>0.4036303453202484</v>
+        <v>0.9706650893210215</v>
       </c>
       <c r="J4">
-        <v>0.4036303453202484</v>
+        <v>0.9706650893210214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N4">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q4">
-        <v>1838.434043682088</v>
+        <v>99870.70587094782</v>
       </c>
       <c r="R4">
-        <v>1838.434043682088</v>
+        <v>898836.3528385303</v>
       </c>
       <c r="S4">
-        <v>0.2124646661742379</v>
+        <v>0.2820799157127261</v>
       </c>
       <c r="T4">
-        <v>0.2124646661742379</v>
+        <v>0.2820799157127259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7485724756694</v>
+        <v>15.69136466666667</v>
       </c>
       <c r="H5">
-        <v>14.7485724756694</v>
+        <v>47.074094</v>
       </c>
       <c r="I5">
-        <v>0.5963696546797514</v>
+        <v>0.02912036538949551</v>
       </c>
       <c r="J5">
-        <v>0.5963696546797514</v>
+        <v>0.02912036538949551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N5">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q5">
-        <v>1614.773955513483</v>
+        <v>6427.444233918823</v>
       </c>
       <c r="R5">
-        <v>1614.773955513483</v>
+        <v>57846.99810526941</v>
       </c>
       <c r="S5">
-        <v>0.1866166537679463</v>
+        <v>0.01815400133543546</v>
       </c>
       <c r="T5">
-        <v>0.1866166537679463</v>
+        <v>0.01815400133543546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.7485724756694</v>
+        <v>15.69136466666667</v>
       </c>
       <c r="H6">
-        <v>14.7485724756694</v>
+        <v>47.074094</v>
       </c>
       <c r="I6">
-        <v>0.5963696546797514</v>
+        <v>0.02912036538949551</v>
       </c>
       <c r="J6">
-        <v>0.5963696546797514</v>
+        <v>0.02912036538949551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N6">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q6">
-        <v>829.2361080616462</v>
+        <v>886.4896723273654</v>
       </c>
       <c r="R6">
-        <v>829.2361080616462</v>
+        <v>7978.407050946289</v>
       </c>
       <c r="S6">
-        <v>0.09583339336236121</v>
+        <v>0.002503846647218377</v>
       </c>
       <c r="T6">
-        <v>0.09583339336236121</v>
+        <v>0.002503846647218376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15.69136466666667</v>
+      </c>
+      <c r="H7">
+        <v>47.074094</v>
+      </c>
+      <c r="I7">
+        <v>0.02912036538949551</v>
+      </c>
+      <c r="J7">
+        <v>0.02912036538949551</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>190.9434713333333</v>
+      </c>
+      <c r="N7">
+        <v>572.830414</v>
+      </c>
+      <c r="O7">
+        <v>0.2906047810064339</v>
+      </c>
+      <c r="P7">
+        <v>0.2906047810064338</v>
+      </c>
+      <c r="Q7">
+        <v>2996.163639410547</v>
+      </c>
+      <c r="R7">
+        <v>26965.47275469492</v>
+      </c>
+      <c r="S7">
+        <v>0.008462517406841679</v>
+      </c>
+      <c r="T7">
+        <v>0.008462517406841678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>14.7485724756694</v>
-      </c>
-      <c r="H7">
-        <v>14.7485724756694</v>
-      </c>
-      <c r="I7">
-        <v>0.5963696546797514</v>
-      </c>
-      <c r="J7">
-        <v>0.5963696546797514</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>184.174625051329</v>
-      </c>
-      <c r="N7">
-        <v>184.174625051329</v>
-      </c>
-      <c r="O7">
-        <v>0.5263842737236819</v>
-      </c>
-      <c r="P7">
-        <v>0.5263842737236819</v>
-      </c>
-      <c r="Q7">
-        <v>2716.312805748763</v>
-      </c>
-      <c r="R7">
-        <v>2716.312805748763</v>
-      </c>
-      <c r="S7">
-        <v>0.3139196075494439</v>
-      </c>
-      <c r="T7">
-        <v>0.3139196075494439</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1156066666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.34682</v>
+      </c>
+      <c r="I8">
+        <v>0.0002145452894831037</v>
+      </c>
+      <c r="J8">
+        <v>0.0002145452894831036</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>409.6166503333334</v>
+      </c>
+      <c r="N8">
+        <v>1228.849951</v>
+      </c>
+      <c r="O8">
+        <v>0.6234125531262766</v>
+      </c>
+      <c r="P8">
+        <v>0.6234125531262766</v>
+      </c>
+      <c r="Q8">
+        <v>47.35441555620223</v>
+      </c>
+      <c r="R8">
+        <v>426.1897400058201</v>
+      </c>
+      <c r="S8">
+        <v>0.0001337502266778777</v>
+      </c>
+      <c r="T8">
+        <v>0.0001337502266778777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1156066666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.34682</v>
+      </c>
+      <c r="I9">
+        <v>0.0002145452894831037</v>
+      </c>
+      <c r="J9">
+        <v>0.0002145452894831036</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>56.495384</v>
+      </c>
+      <c r="N9">
+        <v>169.486152</v>
+      </c>
+      <c r="O9">
+        <v>0.08598266586728959</v>
+      </c>
+      <c r="P9">
+        <v>0.08598266586728959</v>
+      </c>
+      <c r="Q9">
+        <v>6.531243026293334</v>
+      </c>
+      <c r="R9">
+        <v>58.78118723664</v>
+      </c>
+      <c r="S9">
+        <v>1.844717593902662E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.844717593902662E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1156066666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.34682</v>
+      </c>
+      <c r="I10">
+        <v>0.0002145452894831037</v>
+      </c>
+      <c r="J10">
+        <v>0.0002145452894831036</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>190.9434713333333</v>
+      </c>
+      <c r="N10">
+        <v>572.830414</v>
+      </c>
+      <c r="O10">
+        <v>0.2906047810064339</v>
+      </c>
+      <c r="P10">
+        <v>0.2906047810064338</v>
+      </c>
+      <c r="Q10">
+        <v>22.07433824260889</v>
+      </c>
+      <c r="R10">
+        <v>198.66904418348</v>
+      </c>
+      <c r="S10">
+        <v>6.23478868661993E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.234788686619929E-05</v>
       </c>
     </row>
   </sheetData>
